--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,42 +64,51 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.834+/-0.002</t>
   </si>
   <si>
     <t>0.803+/-0.0</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.896+/-0.072</t>
-  </si>
-  <si>
-    <t>0.585+/-0.105</t>
-  </si>
-  <si>
-    <t>0.571</t>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.895+/-0.072</t>
+  </si>
+  <si>
+    <t>0.599+/-0.105</t>
+  </si>
+  <si>
+    <t>0.542</t>
   </si>
   <si>
     <t>0.202+/-0.026</t>
   </si>
   <si>
-    <t>0.086+/-0.032</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>7.141+/-0.448</t>
+    <t>0.085+/-0.028</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>6.028+/-0.444</t>
   </si>
   <si>
     <t>0.809+/-0.001</t>
   </si>
   <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
     <t>0.791</t>
   </si>
   <si>
@@ -121,7 +130,7 @@
     <t>0.056</t>
   </si>
   <si>
-    <t>1.388+/-0.024</t>
+    <t>0.977+/-0.087</t>
   </si>
   <si>
     <t>0.834+/-0.001</t>
@@ -133,52 +142,58 @@
     <t>0.795</t>
   </si>
   <si>
-    <t>0.885+/-0.061</t>
-  </si>
-  <si>
-    <t>0.533+/-0.054</t>
+    <t>0.897+/-0.056</t>
+  </si>
+  <si>
+    <t>0.541+/-0.062</t>
   </si>
   <si>
     <t>0.446</t>
   </si>
   <si>
-    <t>0.206+/-0.023</t>
-  </si>
-  <si>
-    <t>0.107+/-0.038</t>
+    <t>0.203+/-0.022</t>
+  </si>
+  <si>
+    <t>0.103+/-0.038</t>
   </si>
   <si>
     <t>0.077</t>
   </si>
   <si>
-    <t>4.362+/-0.049</t>
+    <t>3.778+/-0.08</t>
   </si>
   <si>
     <t>0.807+/-0.001</t>
   </si>
   <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.723+/-0.087</t>
-  </si>
-  <si>
-    <t>0.573+/-0.116</t>
-  </si>
-  <si>
-    <t>0.383</t>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.721+/-0.084</t>
+  </si>
+  <si>
+    <t>0.581+/-0.107</t>
+  </si>
+  <si>
+    <t>0.391</t>
   </si>
   <si>
     <t>0.077+/-0.022</t>
   </si>
   <si>
-    <t>0.057+/-0.025</t>
+    <t>0.057+/-0.027</t>
   </si>
   <si>
     <t>0.048</t>
   </si>
   <si>
-    <t>0.851+/-0.029</t>
+    <t>0.609+/-0.021</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.871+/-0.001</t>
@@ -187,316 +202,310 @@
     <t>0.851+/-0.0</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.961+/-0.006</t>
-  </si>
-  <si>
-    <t>0.563+/-0.241</t>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.96+/-0.006</t>
+  </si>
+  <si>
+    <t>0.607+/-0.264</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.146+/-0.008</t>
+  </si>
+  <si>
+    <t>0.041+/-0.013</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>5.2+/-0.083</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672+/-0.029</t>
+  </si>
+  <si>
+    <t>0.504+/-0.142</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.082+/-0.008</t>
+  </si>
+  <si>
+    <t>0.057+/-0.012</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.989+/-0.085</t>
+  </si>
+  <si>
+    <t>0.877+/-0.001</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.958+/-0.014</t>
+  </si>
+  <si>
+    <t>0.474+/-0.107</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.185+/-0.008</t>
+  </si>
+  <si>
+    <t>0.075+/-0.022</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>3.859+/-0.115</t>
+  </si>
+  <si>
+    <t>0.854+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.835+/-0.061</t>
+  </si>
+  <si>
+    <t>0.507+/-0.313</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.032+/-0.007</t>
+  </si>
+  <si>
+    <t>0.016+/-0.01</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.632+/-0.023</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.773+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.996+/-0.002</t>
+  </si>
+  <si>
+    <t>0.518+/-0.069</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.182+/-0.003</t>
+  </si>
+  <si>
+    <t>0.038+/-0.007</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>5.314+/-0.105</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.667+/-0.017</t>
+  </si>
+  <si>
+    <t>0.539+/-0.108</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.092+/-0.005</t>
+  </si>
+  <si>
+    <t>0.069+/-0.016</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.967+/-0.035</t>
+  </si>
+  <si>
+    <t>0.769+/-0.001</t>
+  </si>
+  <si>
+    <t>0.914+/-0.013</t>
+  </si>
+  <si>
+    <t>0.518+/-0.079</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>0.147+/-0.009</t>
-  </si>
-  <si>
-    <t>0.04+/-0.016</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>7.178+/-0.367</t>
-  </si>
-  <si>
-    <t>0.856+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.672+/-0.029</t>
-  </si>
-  <si>
-    <t>0.504+/-0.142</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.082+/-0.008</t>
-  </si>
-  <si>
-    <t>0.057+/-0.012</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>1.446+/-0.017</t>
-  </si>
-  <si>
-    <t>0.877+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.958+/-0.013</t>
-  </si>
-  <si>
-    <t>0.465+/-0.111</t>
-  </si>
-  <si>
-    <t>0.185+/-0.008</t>
-  </si>
-  <si>
-    <t>0.074+/-0.021</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>4.5+/-0.343</t>
-  </si>
-  <si>
-    <t>0.854+/-0.001</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.82+/-0.053</t>
-  </si>
-  <si>
-    <t>0.552+/-0.298</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.031+/-0.009</t>
-  </si>
-  <si>
-    <t>0.019+/-0.008</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>0.792+/-0.029</t>
-  </si>
-  <si>
-    <t>0.77+/-0.002</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.994+/-0.003</t>
-  </si>
-  <si>
-    <t>0.535+/-0.076</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.17+/-0.006</t>
-  </si>
-  <si>
-    <t>0.042+/-0.008</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>6.679+/-0.441</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.676+/-0.013</t>
-  </si>
-  <si>
-    <t>0.512+/-0.083</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.091+/-0.006</t>
-  </si>
-  <si>
-    <t>0.063+/-0.015</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>1.123+/-0.026</t>
-  </si>
-  <si>
-    <t>0.767+/-0.002</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.914+/-0.015</t>
-  </si>
-  <si>
-    <t>0.496+/-0.057</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.176+/-0.005</t>
-  </si>
-  <si>
-    <t>0.078+/-0.017</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>3.948+/-0.073</t>
-  </si>
-  <si>
-    <t>0.73+/-0.001</t>
+    <t>0.181+/-0.004</t>
+  </si>
+  <si>
+    <t>0.081+/-0.011</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>3.662+/-0.059</t>
+  </si>
+  <si>
+    <t>0.731+/-0.001</t>
   </si>
   <si>
     <t>0.724</t>
   </si>
   <si>
-    <t>0.945+/-0.02</t>
-  </si>
-  <si>
-    <t>0.61+/-0.298</t>
+    <t>0.928+/-0.025</t>
+  </si>
+  <si>
+    <t>0.625+/-0.268</t>
   </si>
   <si>
     <t>0.545</t>
   </si>
   <si>
-    <t>0.028+/-0.003</t>
-  </si>
-  <si>
-    <t>0.01+/-0.006</t>
+    <t>0.03+/-0.003</t>
+  </si>
+  <si>
+    <t>0.013+/-0.007</t>
   </si>
   <si>
     <t>0.012</t>
   </si>
   <si>
-    <t>1.091+/-0.109</t>
-  </si>
-  <si>
-    <t>0.736+/-0.002</t>
+    <t>0.603+/-0.011</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.739+/-0.002</t>
   </si>
   <si>
     <t>0.694+/-0.0</t>
   </si>
   <si>
-    <t>0.695</t>
+    <t>0.694</t>
   </si>
   <si>
     <t>0.995+/-0.003</t>
   </si>
   <si>
-    <t>0.568+/-0.139</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.143+/-0.005</t>
-  </si>
-  <si>
-    <t>0.033+/-0.013</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>7.118+/-0.709</t>
-  </si>
-  <si>
-    <t>0.704+/-0.001</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.727+/-0.017</t>
-  </si>
-  <si>
-    <t>0.511+/-0.111</t>
-  </si>
-  <si>
-    <t>0.065+/-0.003</t>
-  </si>
-  <si>
-    <t>0.047+/-0.012</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>1.267+/-0.1</t>
-  </si>
-  <si>
-    <t>0.738+/-0.002</t>
+    <t>0.553+/-0.117</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.155+/-0.007</t>
+  </si>
+  <si>
+    <t>0.034+/-0.014</t>
+  </si>
+  <si>
+    <t>4.635+/-0.05</t>
+  </si>
+  <si>
+    <t>0.704+/-0.002</t>
   </si>
   <si>
     <t>0.69+/-0.0</t>
   </si>
   <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.924+/-0.013</t>
-  </si>
-  <si>
-    <t>0.48+/-0.062</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.162+/-0.006</t>
-  </si>
-  <si>
-    <t>0.068+/-0.016</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>4.076+/-0.118</t>
+    <t>0.678+/-0.023</t>
+  </si>
+  <si>
+    <t>0.475+/-0.06</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.077+/-0.006</t>
+  </si>
+  <si>
+    <t>0.055+/-0.009</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.931+/-0.028</t>
+  </si>
+  <si>
+    <t>0.74+/-0.003</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.907+/-0.016</t>
+  </si>
+  <si>
+    <t>0.47+/-0.053</t>
+  </si>
+  <si>
+    <t>0.174+/-0.009</t>
+  </si>
+  <si>
+    <t>0.08+/-0.017</t>
+  </si>
+  <si>
+    <t>3.642+/-0.241</t>
   </si>
   <si>
     <t>0.699+/-0.001</t>
@@ -505,22 +514,19 @@
     <t>0.693+/-0.0</t>
   </si>
   <si>
-    <t>0.898+/-0.026</t>
-  </si>
-  <si>
-    <t>0.673+/-0.199</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.027+/-0.003</t>
-  </si>
-  <si>
-    <t>0.013+/-0.007</t>
-  </si>
-  <si>
-    <t>0.747+/-0.027</t>
+    <t>0.885+/-0.025</t>
+  </si>
+  <si>
+    <t>0.559+/-0.211</t>
+  </si>
+  <si>
+    <t>0.027+/-0.002</t>
+  </si>
+  <si>
+    <t>0.011+/-0.006</t>
+  </si>
+  <si>
+    <t>0.575+/-0.056</t>
   </si>
 </sst>
 </file>
@@ -909,16 +915,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.7986820871436255</v>
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -926,19 +932,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>0.7986820871436255</v>
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -946,19 +952,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -966,19 +972,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -986,19 +992,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1006,19 +1012,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1026,19 +1032,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1046,19 +1052,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1066,19 +1072,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1086,19 +1092,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1136,19 +1142,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2">
-        <v>0.8500537923614847</v>
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1156,19 +1162,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3">
-        <v>0.8500537923614847</v>
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1176,19 +1182,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1196,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1216,19 +1222,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1236,19 +1242,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1256,19 +1262,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1276,19 +1282,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1296,19 +1302,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1316,19 +1322,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1366,19 +1372,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2">
-        <v>0.7231038192576654</v>
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1386,19 +1392,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3">
-        <v>0.7231038192576654</v>
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1406,19 +1412,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1426,19 +1432,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1446,19 +1452,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1466,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1486,19 +1492,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1506,19 +1512,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1526,19 +1532,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1546,19 +1552,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1596,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2">
-        <v>0.6919042495965573</v>
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1616,19 +1622,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3">
-        <v>0.6919042495965573</v>
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1636,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1656,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1676,19 +1682,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1696,19 +1702,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1716,19 +1722,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1736,19 +1742,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1756,19 +1762,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1776,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -82,28 +82,28 @@
     <t>0.803+/-0.0</t>
   </si>
   <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.895+/-0.072</t>
-  </si>
-  <si>
-    <t>0.599+/-0.105</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.202+/-0.026</t>
-  </si>
-  <si>
-    <t>0.085+/-0.028</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.896+/-0.074</t>
+  </si>
+  <si>
+    <t>0.597+/-0.113</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.201+/-0.027</t>
+  </si>
+  <si>
+    <t>0.087+/-0.029</t>
   </si>
   <si>
     <t>0.035</t>
   </si>
   <si>
-    <t>6.028+/-0.444</t>
+    <t>6.221+/-0.089</t>
   </si>
   <si>
     <t>0.809+/-0.001</t>
@@ -130,382 +130,388 @@
     <t>0.056</t>
   </si>
   <si>
-    <t>0.977+/-0.087</t>
+    <t>1.182+/-0.023</t>
   </si>
   <si>
     <t>0.834+/-0.001</t>
   </si>
   <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.897+/-0.056</t>
-  </si>
-  <si>
-    <t>0.541+/-0.062</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>0.203+/-0.022</t>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.896+/-0.057</t>
+  </si>
+  <si>
+    <t>0.55+/-0.055</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.202+/-0.021</t>
   </si>
   <si>
     <t>0.103+/-0.038</t>
   </si>
   <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>4.505+/-0.043</t>
+  </si>
+  <si>
+    <t>0.807+/-0.001</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.725+/-0.084</t>
+  </si>
+  <si>
+    <t>0.571+/-0.106</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.078+/-0.022</t>
+  </si>
+  <si>
+    <t>0.057+/-0.024</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.837+/-0.019</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.87+/-0.001</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.956+/-0.008</t>
+  </si>
+  <si>
+    <t>0.563+/-0.219</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.137+/-0.007</t>
+  </si>
+  <si>
+    <t>0.04+/-0.017</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>6.628+/-0.339</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673+/-0.018</t>
+  </si>
+  <si>
+    <t>0.487+/-0.144</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.081+/-0.008</t>
+  </si>
+  <si>
+    <t>0.058+/-0.016</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>1.176+/-0.019</t>
+  </si>
+  <si>
+    <t>0.876+/-0.001</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.957+/-0.014</t>
+  </si>
+  <si>
+    <t>0.508+/-0.125</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.181+/-0.008</t>
+  </si>
+  <si>
+    <t>0.074+/-0.022</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>4.356+/-0.057</t>
+  </si>
+  <si>
+    <t>0.853+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.819+/-0.057</t>
+  </si>
+  <si>
+    <t>0.548+/-0.387</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.024+/-0.008</t>
+  </si>
+  <si>
+    <t>0.009+/-0.004</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.761+/-0.025</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.77+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.995+/-0.002</t>
+  </si>
+  <si>
+    <t>0.527+/-0.08</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.171+/-0.004</t>
+  </si>
+  <si>
+    <t>0.041+/-0.009</t>
+  </si>
+  <si>
+    <t>6.306+/-0.295</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.676+/-0.013</t>
+  </si>
+  <si>
+    <t>0.512+/-0.083</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.091+/-0.006</t>
+  </si>
+  <si>
+    <t>0.063+/-0.015</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>1.337+/-0.018</t>
+  </si>
+  <si>
+    <t>0.767+/-0.002</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.914+/-0.015</t>
+  </si>
+  <si>
+    <t>0.496+/-0.058</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.176+/-0.005</t>
+  </si>
+  <si>
+    <t>0.078+/-0.017</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>4.819+/-0.056</t>
+  </si>
+  <si>
+    <t>0.73+/-0.001</t>
+  </si>
+  <si>
+    <t>0.927+/-0.023</t>
+  </si>
+  <si>
+    <t>0.585+/-0.316</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.028+/-0.002</t>
+  </si>
+  <si>
+    <t>0.009+/-0.006</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.821+/-0.055</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.739+/-0.002</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.995+/-0.003</t>
+  </si>
+  <si>
+    <t>0.553+/-0.117</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.155+/-0.007</t>
+  </si>
+  <si>
+    <t>0.034+/-0.014</t>
+  </si>
+  <si>
+    <t>6.926+/-0.334</t>
+  </si>
+  <si>
+    <t>0.704+/-0.002</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678+/-0.023</t>
+  </si>
+  <si>
+    <t>0.475+/-0.06</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.077+/-0.006</t>
+  </si>
+  <si>
+    <t>0.055+/-0.009</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>1.377+/-0.06</t>
+  </si>
+  <si>
+    <t>0.74+/-0.003</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.907+/-0.016</t>
+  </si>
+  <si>
+    <t>0.47+/-0.053</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.174+/-0.009</t>
+  </si>
+  <si>
+    <t>0.08+/-0.017</t>
+  </si>
+  <si>
     <t>0.077</t>
   </si>
   <si>
-    <t>3.778+/-0.08</t>
-  </si>
-  <si>
-    <t>0.807+/-0.001</t>
-  </si>
-  <si>
-    <t>0.793</t>
-  </si>
-  <si>
-    <t>0.721+/-0.084</t>
-  </si>
-  <si>
-    <t>0.581+/-0.107</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.077+/-0.022</t>
-  </si>
-  <si>
-    <t>0.057+/-0.027</t>
-  </si>
-  <si>
-    <t>0.048</t>
-  </si>
-  <si>
-    <t>0.609+/-0.021</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.871+/-0.001</t>
-  </si>
-  <si>
-    <t>0.851+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.96+/-0.006</t>
-  </si>
-  <si>
-    <t>0.607+/-0.264</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.146+/-0.008</t>
-  </si>
-  <si>
-    <t>0.041+/-0.013</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>5.2+/-0.083</t>
-  </si>
-  <si>
-    <t>0.856+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.672+/-0.029</t>
-  </si>
-  <si>
-    <t>0.504+/-0.142</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.082+/-0.008</t>
-  </si>
-  <si>
-    <t>0.057+/-0.012</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.989+/-0.085</t>
-  </si>
-  <si>
-    <t>0.877+/-0.001</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.958+/-0.014</t>
-  </si>
-  <si>
-    <t>0.474+/-0.107</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.185+/-0.008</t>
-  </si>
-  <si>
-    <t>0.075+/-0.022</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>3.859+/-0.115</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.835+/-0.061</t>
-  </si>
-  <si>
-    <t>0.507+/-0.313</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.032+/-0.007</t>
-  </si>
-  <si>
-    <t>0.016+/-0.01</t>
-  </si>
-  <si>
-    <t>0.011</t>
-  </si>
-  <si>
-    <t>0.632+/-0.023</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.773+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.996+/-0.002</t>
-  </si>
-  <si>
-    <t>0.518+/-0.069</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.182+/-0.003</t>
-  </si>
-  <si>
-    <t>0.038+/-0.007</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>5.314+/-0.105</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.667+/-0.017</t>
-  </si>
-  <si>
-    <t>0.539+/-0.108</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.092+/-0.005</t>
-  </si>
-  <si>
-    <t>0.069+/-0.016</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.967+/-0.035</t>
-  </si>
-  <si>
-    <t>0.769+/-0.001</t>
-  </si>
-  <si>
-    <t>0.914+/-0.013</t>
-  </si>
-  <si>
-    <t>0.518+/-0.079</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.181+/-0.004</t>
-  </si>
-  <si>
-    <t>0.081+/-0.011</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>3.662+/-0.059</t>
-  </si>
-  <si>
-    <t>0.731+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.928+/-0.025</t>
-  </si>
-  <si>
-    <t>0.625+/-0.268</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.03+/-0.003</t>
-  </si>
-  <si>
-    <t>0.013+/-0.007</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.603+/-0.011</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.739+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.995+/-0.003</t>
-  </si>
-  <si>
-    <t>0.553+/-0.117</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.155+/-0.007</t>
-  </si>
-  <si>
-    <t>0.034+/-0.014</t>
-  </si>
-  <si>
-    <t>4.635+/-0.05</t>
-  </si>
-  <si>
-    <t>0.704+/-0.002</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678+/-0.023</t>
-  </si>
-  <si>
-    <t>0.475+/-0.06</t>
-  </si>
-  <si>
-    <t>0.529</t>
-  </si>
-  <si>
-    <t>0.077+/-0.006</t>
-  </si>
-  <si>
-    <t>0.055+/-0.009</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.931+/-0.028</t>
-  </si>
-  <si>
-    <t>0.74+/-0.003</t>
-  </si>
-  <si>
-    <t>0.689+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.907+/-0.016</t>
-  </si>
-  <si>
-    <t>0.47+/-0.053</t>
-  </si>
-  <si>
-    <t>0.174+/-0.009</t>
-  </si>
-  <si>
-    <t>0.08+/-0.017</t>
-  </si>
-  <si>
-    <t>3.642+/-0.241</t>
+    <t>4.284+/-0.082</t>
   </si>
   <si>
     <t>0.699+/-0.001</t>
@@ -514,19 +520,25 @@
     <t>0.693+/-0.0</t>
   </si>
   <si>
-    <t>0.885+/-0.025</t>
-  </si>
-  <si>
-    <t>0.559+/-0.211</t>
-  </si>
-  <si>
-    <t>0.027+/-0.002</t>
-  </si>
-  <si>
-    <t>0.011+/-0.006</t>
-  </si>
-  <si>
-    <t>0.575+/-0.056</t>
+    <t>0.9+/-0.026</t>
+  </si>
+  <si>
+    <t>0.604+/-0.109</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.027+/-0.003</t>
+  </si>
+  <si>
+    <t>0.013+/-0.006</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.759+/-0.02</t>
   </si>
 </sst>
 </file>
@@ -944,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -964,7 +976,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -984,7 +996,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1004,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1024,7 +1036,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1044,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1064,7 +1076,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1084,7 +1096,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1104,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1142,19 +1154,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1162,19 +1174,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1182,19 +1194,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1205,16 +1217,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1225,16 +1237,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1245,16 +1257,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1265,16 +1277,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1285,16 +1297,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1305,16 +1317,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1322,19 +1334,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1372,19 +1384,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1392,19 +1404,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1412,19 +1424,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1435,13 +1447,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
@@ -1455,13 +1467,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>129</v>
@@ -1475,13 +1487,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
         <v>130</v>
@@ -1495,13 +1507,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>131</v>
@@ -1515,13 +1527,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>132</v>
@@ -1535,13 +1547,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>133</v>
@@ -1555,13 +1567,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>134</v>
@@ -1614,7 +1626,7 @@
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1634,7 +1646,7 @@
         <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1674,7 +1686,7 @@
         <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1694,7 +1706,7 @@
         <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1711,10 +1723,10 @@
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1731,10 +1743,10 @@
         <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1751,10 +1763,10 @@
         <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1771,10 +1783,10 @@
         <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1782,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>145</v>
@@ -1791,10 +1803,10 @@
         <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
